--- a/demo/py_outputs/Center_detail_latest5.xlsx
+++ b/demo/py_outputs/Center_detail_latest5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>rec_branch</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Aligarh</t>
   </si>
   <si>
-    <t>Hathras</t>
-  </si>
-  <si>
-    <t>Jalesar</t>
-  </si>
-  <si>
     <t>Kiraoli</t>
   </si>
   <si>
@@ -40,15 +34,6 @@
     <t>Fatehabad</t>
   </si>
   <si>
-    <t>Mahoba</t>
-  </si>
-  <si>
-    <t>Ikauna</t>
-  </si>
-  <si>
-    <t>Tarabganj</t>
-  </si>
-  <si>
     <t>Tetari Bazar</t>
   </si>
   <si>
@@ -91,6 +76,9 @@
     <t>Sakri</t>
   </si>
   <si>
+    <t>Raniganj</t>
+  </si>
+  <si>
     <t>Benipur</t>
   </si>
   <si>
@@ -113,6 +101,12 @@
   </si>
   <si>
     <t>Lokapur</t>
+  </si>
+  <si>
+    <t>Jamkhandi</t>
+  </si>
+  <si>
+    <t>Hungund</t>
   </si>
   <si>
     <t>Bijapur</t>
@@ -503,7 +497,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -530,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -538,7 +532,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>149</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -546,7 +540,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -554,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -562,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>18</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -570,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -578,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -586,7 +580,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -594,7 +588,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -602,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>51</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -610,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -618,7 +612,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -626,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>105</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -634,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -642,7 +636,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>121</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -650,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>29</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -658,7 +652,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -666,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -674,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -682,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -690,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -698,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -706,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -714,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>37</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -722,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -730,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -738,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>34</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -746,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -754,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -762,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -770,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -778,7 +772,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -786,7 +780,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -794,7 +788,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -802,7 +796,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -810,7 +804,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -818,7 +812,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -826,7 +820,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -835,22 +829,6 @@
       </c>
       <c r="B41">
         <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
